--- a/template/CTRL_RawData.xlsx
+++ b/template/CTRL_RawData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BARA\Documents\UiPath\HMC_Control_Chart\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F7472-87AE-47C2-98F0-DC91B8EAEF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD04766-7F4F-4558-BCA1-E597BE81D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="960" windowWidth="16824" windowHeight="8964" xr2:uid="{10AB5174-D407-4498-867F-0066A79344B5}"/>
+    <workbookView xWindow="696" yWindow="1308" windowWidth="16824" windowHeight="8964" xr2:uid="{10AB5174-D407-4498-867F-0066A79344B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Row Data" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>QS-PL-220122-0124</t>
+  </si>
+  <si>
+    <t>QS-PL-220118-0117</t>
   </si>
 </sst>
 </file>
@@ -286,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8DAE369-007C-4BE6-A318-A3C1E7AE3C76}" name="Table2" displayName="Table2" ref="A1:R3" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:R3" xr:uid="{D8DAE369-007C-4BE6-A318-A3C1E7AE3C76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8DAE369-007C-4BE6-A318-A3C1E7AE3C76}" name="Table2" displayName="Table2" ref="A1:R9" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:R9" xr:uid="{D8DAE369-007C-4BE6-A318-A3C1E7AE3C76}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{4D376A86-FDAB-4503-80A2-6A94B93260F7}" name="ITEM_ID"/>
     <tableColumn id="2" xr3:uid="{4923128E-7D92-4B5E-B11E-3F16016B6E0A}" name="PARAMETER_NAME"/>
@@ -609,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774AE01A-98C4-417D-AC27-8A4B668B21A9}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -756,10 +759,220 @@
         <v>1</v>
       </c>
       <c r="Q3" s="6">
-        <v>44747.68613425926</v>
+        <v>44747.686111111114</v>
       </c>
       <c r="R3" s="6">
-        <v>44747.686249999999</v>
+        <v>44747.686111111114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44583</v>
+      </c>
+      <c r="E4">
+        <v>41.64</v>
+      </c>
+      <c r="F4">
+        <v>42.75</v>
+      </c>
+      <c r="G4">
+        <v>41.11</v>
+      </c>
+      <c r="H4">
+        <v>41.9</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>44748.594444444447</v>
+      </c>
+      <c r="R4" s="6">
+        <v>44748.594444444447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44583</v>
+      </c>
+      <c r="E5">
+        <v>41.64</v>
+      </c>
+      <c r="F5">
+        <v>42.75</v>
+      </c>
+      <c r="G5">
+        <v>41.11</v>
+      </c>
+      <c r="H5">
+        <v>41.9</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>44748.604166666664</v>
+      </c>
+      <c r="R5" s="6">
+        <v>44748.604166666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44583</v>
+      </c>
+      <c r="E6">
+        <v>41.64</v>
+      </c>
+      <c r="F6">
+        <v>42.75</v>
+      </c>
+      <c r="G6">
+        <v>41.11</v>
+      </c>
+      <c r="H6">
+        <v>41.9</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>44748.60833333333</v>
+      </c>
+      <c r="R6" s="6">
+        <v>44748.60833333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44583</v>
+      </c>
+      <c r="E7">
+        <v>41.64</v>
+      </c>
+      <c r="F7">
+        <v>42.75</v>
+      </c>
+      <c r="G7">
+        <v>41.11</v>
+      </c>
+      <c r="H7">
+        <v>41.9</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>44748.624305555553</v>
+      </c>
+      <c r="R7" s="6">
+        <v>44748.624305555553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44579</v>
+      </c>
+      <c r="E8">
+        <v>42.27</v>
+      </c>
+      <c r="F8">
+        <v>42.75</v>
+      </c>
+      <c r="G8">
+        <v>41.11</v>
+      </c>
+      <c r="H8">
+        <v>41.9</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>44748.650694444441</v>
+      </c>
+      <c r="R8" s="6">
+        <v>44748.650694444441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44583</v>
+      </c>
+      <c r="E9">
+        <v>41.64</v>
+      </c>
+      <c r="F9">
+        <v>42.75</v>
+      </c>
+      <c r="G9">
+        <v>41.11</v>
+      </c>
+      <c r="H9">
+        <v>41.9</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>44748.655034722222</v>
+      </c>
+      <c r="R9" s="6">
+        <v>44748.655127314814</v>
       </c>
     </row>
   </sheetData>

--- a/template/CTRL_RawData.xlsx
+++ b/template/CTRL_RawData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BARA\Documents\UiPath\HMC_Control_Chart\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD04766-7F4F-4558-BCA1-E597BE81D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D639FE3-588E-4D63-9798-57C901A25A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1308" windowWidth="16824" windowHeight="8964" xr2:uid="{10AB5174-D407-4498-867F-0066A79344B5}"/>
+    <workbookView xWindow="-20490" yWindow="3180" windowWidth="11970" windowHeight="6330" xr2:uid="{10AB5174-D407-4498-867F-0066A79344B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Row Data" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -289,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8DAE369-007C-4BE6-A318-A3C1E7AE3C76}" name="Table2" displayName="Table2" ref="A1:R9" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:R9" xr:uid="{D8DAE369-007C-4BE6-A318-A3C1E7AE3C76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8DAE369-007C-4BE6-A318-A3C1E7AE3C76}" name="Table2" displayName="Table2" ref="A1:R10" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:R10" xr:uid="{D8DAE369-007C-4BE6-A318-A3C1E7AE3C76}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{4D376A86-FDAB-4503-80A2-6A94B93260F7}" name="ITEM_ID"/>
     <tableColumn id="2" xr3:uid="{4923128E-7D92-4B5E-B11E-3F16016B6E0A}" name="PARAMETER_NAME"/>
@@ -612,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774AE01A-98C4-417D-AC27-8A4B668B21A9}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -969,10 +969,45 @@
         <v>1</v>
       </c>
       <c r="Q9" s="6">
-        <v>44748.655034722222</v>
+        <v>44748.654861111114</v>
       </c>
       <c r="R9" s="6">
-        <v>44748.655127314814</v>
+        <v>44748.654861111114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44583</v>
+      </c>
+      <c r="E10">
+        <v>41.64</v>
+      </c>
+      <c r="F10">
+        <v>42.75</v>
+      </c>
+      <c r="G10">
+        <v>41.11</v>
+      </c>
+      <c r="H10">
+        <v>41.9</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>44750.611655092594</v>
+      </c>
+      <c r="R10" s="6">
+        <v>44750.611747685187</v>
       </c>
     </row>
   </sheetData>
